--- a/Design/DateTable/client_hero_info.xlsx
+++ b/Design/DateTable/client_hero_info.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\sub\SProjectDesign\Client\SProject\Content\DataTable\Client\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\sub\SProjectDesign\Design\DateTable\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5AB2A78E-1236-462A-9973-6EAA2D4EB2AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4AE85FA-5A22-48C6-B8A3-6C1C7FFA19BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{634E5D1F-E6A6-48B1-B744-D317D5276317}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{634E5D1F-E6A6-48B1-B744-D317D5276317}"/>
   </bookViews>
   <sheets>
     <sheet name="!Hero" sheetId="1" r:id="rId1"/>
@@ -559,7 +559,7 @@
   <dimension ref="A1:M17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J23" sqref="J23"/>
+      <selection activeCell="M5" sqref="M5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -694,6 +694,12 @@
       <c r="K3">
         <v>3</v>
       </c>
+      <c r="L3">
+        <v>0</v>
+      </c>
+      <c r="M3">
+        <v>0</v>
+      </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A4">
@@ -729,6 +735,12 @@
       <c r="K4">
         <v>3</v>
       </c>
+      <c r="L4">
+        <v>0</v>
+      </c>
+      <c r="M4">
+        <v>0</v>
+      </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A5">
@@ -764,6 +776,12 @@
       <c r="K5">
         <v>3</v>
       </c>
+      <c r="L5">
+        <v>0</v>
+      </c>
+      <c r="M5">
+        <v>0</v>
+      </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A6">
@@ -799,6 +817,12 @@
       <c r="K6">
         <v>3</v>
       </c>
+      <c r="L6">
+        <v>0</v>
+      </c>
+      <c r="M6">
+        <v>0</v>
+      </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A7">
@@ -833,6 +857,12 @@
       </c>
       <c r="K7">
         <v>3</v>
+      </c>
+      <c r="L7">
+        <v>0</v>
+      </c>
+      <c r="M7">
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.3">
@@ -869,6 +899,12 @@
       <c r="K8">
         <v>5</v>
       </c>
+      <c r="L8">
+        <v>0</v>
+      </c>
+      <c r="M8">
+        <v>0</v>
+      </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A9">
@@ -904,6 +940,12 @@
       <c r="K9">
         <v>5</v>
       </c>
+      <c r="L9">
+        <v>0</v>
+      </c>
+      <c r="M9">
+        <v>0</v>
+      </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A10">
@@ -939,6 +981,12 @@
       <c r="K10">
         <v>5</v>
       </c>
+      <c r="L10">
+        <v>0</v>
+      </c>
+      <c r="M10">
+        <v>0</v>
+      </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A11">
@@ -974,6 +1022,12 @@
       <c r="K11">
         <v>5</v>
       </c>
+      <c r="L11">
+        <v>0</v>
+      </c>
+      <c r="M11">
+        <v>0</v>
+      </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A12">
@@ -1009,6 +1063,12 @@
       <c r="K12">
         <v>5</v>
       </c>
+      <c r="L12">
+        <v>0</v>
+      </c>
+      <c r="M12">
+        <v>0</v>
+      </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A13">
@@ -1044,6 +1104,12 @@
       <c r="K13">
         <v>5</v>
       </c>
+      <c r="L13">
+        <v>0</v>
+      </c>
+      <c r="M13">
+        <v>0</v>
+      </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A14">
@@ -1079,6 +1145,12 @@
       <c r="K14">
         <v>5</v>
       </c>
+      <c r="L14">
+        <v>0</v>
+      </c>
+      <c r="M14">
+        <v>0</v>
+      </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A15">
@@ -1114,6 +1186,12 @@
       <c r="K15">
         <v>5</v>
       </c>
+      <c r="L15">
+        <v>0</v>
+      </c>
+      <c r="M15">
+        <v>0</v>
+      </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A16">
@@ -1149,8 +1227,14 @@
       <c r="K16">
         <v>5</v>
       </c>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L16">
+        <v>0</v>
+      </c>
+      <c r="M16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>15</v>
       </c>
@@ -1183,6 +1267,12 @@
       </c>
       <c r="K17">
         <v>5</v>
+      </c>
+      <c r="L17">
+        <v>0</v>
+      </c>
+      <c r="M17">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Design/DateTable/client_hero_info.xlsx
+++ b/Design/DateTable/client_hero_info.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\sub\SProjectDesign\Design\DateTable\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SUB\SProjectDesign\Design\DateTable\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4AE85FA-5A22-48C6-B8A3-6C1C7FFA19BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FCE29C77-7A78-476B-BC1E-E83766CBD111}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{634E5D1F-E6A6-48B1-B744-D317D5276317}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="33">
   <si>
     <t>AttackSpeed</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -153,6 +153,10 @@
   </si>
   <si>
     <t>소환사</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>enum()</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -260,9 +264,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 테마">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 테마">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -300,7 +304,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -406,7 +410,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -548,7 +552,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -556,29 +560,30 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C3F3863-F070-4592-A50F-8035B6750A51}">
-  <dimension ref="A1:M17"/>
+  <dimension ref="A1:N17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M5" sqref="M5"/>
+      <selection activeCell="M2" sqref="M2:M3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="6.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7.75" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="5.75" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.75" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="7.5" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.75" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="9.375" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="11" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="5.75" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7.75" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="5.75" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.75" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.75" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="9.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>21</v>
       </c>
@@ -586,40 +591,43 @@
         <v>2</v>
       </c>
       <c r="C1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="2" t="s">
-        <v>5</v>
-      </c>
       <c r="E1" s="2" t="s">
-        <v>1</v>
+        <v>19</v>
       </c>
       <c r="F1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="H1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="I1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="H1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="I1" s="2" t="s">
+      <c r="J1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="K1" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="L1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="N1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="M1" s="2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>22</v>
       </c>
@@ -633,7 +641,7 @@
         <v>22</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="F2" s="3" t="s">
         <v>22</v>
@@ -659,619 +667,622 @@
       <c r="M2" s="3" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N2" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>1</v>
       </c>
       <c r="B3">
         <v>10001</v>
       </c>
-      <c r="C3">
-        <v>1</v>
-      </c>
-      <c r="D3" t="s">
+      <c r="D3">
+        <v>1</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3" t="s">
         <v>29</v>
       </c>
-      <c r="E3">
+      <c r="G3">
         <v>10</v>
       </c>
-      <c r="F3">
-        <v>5</v>
-      </c>
-      <c r="G3">
+      <c r="H3">
+        <v>5</v>
+      </c>
+      <c r="I3">
         <v>50</v>
       </c>
-      <c r="H3">
-        <v>1</v>
-      </c>
-      <c r="I3">
-        <v>1</v>
-      </c>
       <c r="J3">
         <v>1</v>
       </c>
       <c r="K3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
+        <v>3</v>
+      </c>
+      <c r="N3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>2</v>
       </c>
       <c r="B4">
         <v>10001</v>
       </c>
-      <c r="C4">
+      <c r="D4">
         <v>2</v>
       </c>
-      <c r="D4" t="s">
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4" t="s">
         <v>29</v>
       </c>
-      <c r="E4">
+      <c r="G4">
         <v>15</v>
       </c>
-      <c r="F4">
+      <c r="H4">
         <v>10</v>
       </c>
-      <c r="G4">
+      <c r="I4">
         <v>75</v>
       </c>
-      <c r="H4">
+      <c r="J4">
         <v>2</v>
       </c>
-      <c r="I4">
-        <v>1</v>
-      </c>
-      <c r="J4">
-        <v>1</v>
-      </c>
       <c r="K4">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
+        <v>3</v>
+      </c>
+      <c r="N4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>3</v>
       </c>
       <c r="B5">
         <v>10001</v>
       </c>
-      <c r="C5">
-        <v>3</v>
-      </c>
-      <c r="D5" t="s">
+      <c r="D5">
+        <v>3</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5" t="s">
         <v>29</v>
       </c>
-      <c r="E5">
+      <c r="G5">
         <v>20</v>
       </c>
-      <c r="F5">
+      <c r="H5">
         <v>15</v>
       </c>
-      <c r="G5">
+      <c r="I5">
         <v>100</v>
       </c>
-      <c r="H5">
-        <v>3</v>
-      </c>
-      <c r="I5">
-        <v>1</v>
-      </c>
       <c r="J5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K5">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
+        <v>3</v>
+      </c>
+      <c r="N5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>4</v>
       </c>
       <c r="B6">
         <v>10001</v>
       </c>
-      <c r="C6">
+      <c r="D6">
         <v>4</v>
       </c>
-      <c r="D6" t="s">
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6" t="s">
         <v>29</v>
       </c>
-      <c r="E6">
+      <c r="G6">
         <v>25</v>
       </c>
-      <c r="F6">
+      <c r="H6">
         <v>20</v>
       </c>
-      <c r="G6">
+      <c r="I6">
         <v>125</v>
       </c>
-      <c r="H6">
+      <c r="J6">
         <v>4</v>
       </c>
-      <c r="I6">
-        <v>1</v>
-      </c>
-      <c r="J6">
-        <v>1</v>
-      </c>
       <c r="K6">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
+        <v>3</v>
+      </c>
+      <c r="N6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>5</v>
       </c>
       <c r="B7">
         <v>10001</v>
       </c>
-      <c r="C7">
-        <v>5</v>
-      </c>
-      <c r="D7" t="s">
+      <c r="D7">
+        <v>5</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7" t="s">
         <v>29</v>
       </c>
-      <c r="E7">
+      <c r="G7">
         <v>30</v>
       </c>
-      <c r="F7">
+      <c r="H7">
         <v>25</v>
       </c>
-      <c r="G7">
+      <c r="I7">
         <v>150</v>
       </c>
-      <c r="H7">
-        <v>5</v>
-      </c>
-      <c r="I7">
-        <v>1</v>
-      </c>
       <c r="J7">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="K7">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
+        <v>3</v>
+      </c>
+      <c r="N7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>6</v>
       </c>
       <c r="B8">
         <v>11001</v>
       </c>
-      <c r="C8">
-        <v>1</v>
-      </c>
-      <c r="D8" t="s">
+      <c r="D8">
+        <v>1</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8" t="s">
         <v>30</v>
       </c>
-      <c r="E8">
-        <v>3</v>
-      </c>
-      <c r="F8">
-        <v>1</v>
-      </c>
       <c r="G8">
+        <v>3</v>
+      </c>
+      <c r="H8">
+        <v>1</v>
+      </c>
+      <c r="I8">
         <v>30</v>
       </c>
-      <c r="H8">
-        <v>1</v>
-      </c>
-      <c r="I8">
-        <v>1</v>
-      </c>
       <c r="J8">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="K8">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="M8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
+        <v>5</v>
+      </c>
+      <c r="N8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>7</v>
       </c>
       <c r="B9">
         <v>11002</v>
       </c>
-      <c r="C9">
+      <c r="D9">
         <v>2</v>
       </c>
-      <c r="D9" t="s">
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9" t="s">
         <v>30</v>
       </c>
-      <c r="E9">
+      <c r="G9">
         <v>6</v>
-      </c>
-      <c r="F9">
-        <v>2</v>
-      </c>
-      <c r="G9">
-        <v>45</v>
       </c>
       <c r="H9">
         <v>2</v>
       </c>
       <c r="I9">
-        <v>1</v>
+        <v>45</v>
       </c>
       <c r="J9">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="K9">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="M9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
+        <v>5</v>
+      </c>
+      <c r="N9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>8</v>
       </c>
       <c r="B10">
         <v>11003</v>
       </c>
-      <c r="C10">
-        <v>3</v>
-      </c>
-      <c r="D10" t="s">
+      <c r="D10">
+        <v>3</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="F10" t="s">
         <v>30</v>
       </c>
-      <c r="E10">
+      <c r="G10">
         <v>9</v>
       </c>
-      <c r="F10">
-        <v>3</v>
-      </c>
-      <c r="G10">
+      <c r="H10">
+        <v>3</v>
+      </c>
+      <c r="I10">
         <v>60</v>
       </c>
-      <c r="H10">
-        <v>3</v>
-      </c>
-      <c r="I10">
-        <v>1</v>
-      </c>
       <c r="J10">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="K10">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="M10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
+        <v>5</v>
+      </c>
+      <c r="N10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>9</v>
       </c>
       <c r="B11">
         <v>11004</v>
       </c>
-      <c r="C11">
+      <c r="D11">
         <v>4</v>
       </c>
-      <c r="D11" t="s">
+      <c r="E11">
+        <v>0</v>
+      </c>
+      <c r="F11" t="s">
         <v>30</v>
       </c>
-      <c r="E11">
+      <c r="G11">
         <v>12</v>
       </c>
-      <c r="F11">
-        <v>5</v>
-      </c>
-      <c r="G11">
+      <c r="H11">
+        <v>5</v>
+      </c>
+      <c r="I11">
         <v>75</v>
       </c>
-      <c r="H11">
+      <c r="J11">
         <v>4</v>
       </c>
-      <c r="I11">
-        <v>1</v>
-      </c>
-      <c r="J11">
-        <v>5</v>
-      </c>
       <c r="K11">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="M11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
+        <v>5</v>
+      </c>
+      <c r="N11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>10</v>
       </c>
       <c r="B12">
         <v>11005</v>
       </c>
-      <c r="C12">
-        <v>5</v>
-      </c>
-      <c r="D12" t="s">
+      <c r="D12">
+        <v>5</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
+      </c>
+      <c r="F12" t="s">
         <v>30</v>
       </c>
-      <c r="E12">
+      <c r="G12">
         <v>15</v>
       </c>
-      <c r="F12">
+      <c r="H12">
         <v>10</v>
       </c>
-      <c r="G12">
+      <c r="I12">
         <v>90</v>
       </c>
-      <c r="H12">
-        <v>5</v>
-      </c>
-      <c r="I12">
-        <v>1</v>
-      </c>
       <c r="J12">
         <v>5</v>
       </c>
       <c r="K12">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="M12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
+        <v>5</v>
+      </c>
+      <c r="N12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>11</v>
       </c>
       <c r="B13">
         <v>12001</v>
       </c>
-      <c r="C13">
-        <v>1</v>
-      </c>
-      <c r="D13" t="s">
+      <c r="D13">
+        <v>1</v>
+      </c>
+      <c r="E13">
+        <v>0</v>
+      </c>
+      <c r="F13" t="s">
         <v>31</v>
       </c>
-      <c r="E13">
-        <v>0</v>
-      </c>
-      <c r="F13">
-        <v>1</v>
-      </c>
       <c r="G13">
+        <v>0</v>
+      </c>
+      <c r="H13">
+        <v>1</v>
+      </c>
+      <c r="I13">
         <v>30</v>
       </c>
-      <c r="H13">
-        <v>0</v>
-      </c>
-      <c r="I13">
-        <v>1</v>
-      </c>
       <c r="J13">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="K13">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="M13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
+        <v>5</v>
+      </c>
+      <c r="N13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>12</v>
       </c>
       <c r="B14">
         <v>12002</v>
       </c>
-      <c r="C14">
+      <c r="D14">
         <v>2</v>
       </c>
-      <c r="D14" t="s">
+      <c r="E14">
+        <v>0</v>
+      </c>
+      <c r="F14" t="s">
         <v>31</v>
       </c>
-      <c r="E14">
-        <v>0</v>
-      </c>
-      <c r="F14">
+      <c r="G14">
+        <v>0</v>
+      </c>
+      <c r="H14">
         <v>2</v>
       </c>
-      <c r="G14">
+      <c r="I14">
         <v>45</v>
       </c>
-      <c r="H14">
-        <v>0</v>
-      </c>
-      <c r="I14">
-        <v>1</v>
-      </c>
       <c r="J14">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="K14">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="M14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
+        <v>5</v>
+      </c>
+      <c r="N14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>13</v>
       </c>
       <c r="B15">
         <v>12003</v>
       </c>
-      <c r="C15">
-        <v>3</v>
-      </c>
-      <c r="D15" t="s">
+      <c r="D15">
+        <v>3</v>
+      </c>
+      <c r="E15">
+        <v>0</v>
+      </c>
+      <c r="F15" t="s">
         <v>31</v>
       </c>
-      <c r="E15">
-        <v>0</v>
-      </c>
-      <c r="F15">
-        <v>3</v>
-      </c>
       <c r="G15">
+        <v>0</v>
+      </c>
+      <c r="H15">
+        <v>3</v>
+      </c>
+      <c r="I15">
         <v>60</v>
       </c>
-      <c r="H15">
-        <v>0</v>
-      </c>
-      <c r="I15">
-        <v>1</v>
-      </c>
       <c r="J15">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="K15">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="M15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
+        <v>5</v>
+      </c>
+      <c r="N15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>14</v>
       </c>
       <c r="B16">
         <v>12004</v>
       </c>
-      <c r="C16">
+      <c r="D16">
         <v>4</v>
       </c>
-      <c r="D16" t="s">
+      <c r="E16">
+        <v>0</v>
+      </c>
+      <c r="F16" t="s">
         <v>31</v>
       </c>
-      <c r="E16">
-        <v>0</v>
-      </c>
-      <c r="F16">
-        <v>5</v>
-      </c>
       <c r="G16">
+        <v>0</v>
+      </c>
+      <c r="H16">
+        <v>5</v>
+      </c>
+      <c r="I16">
         <v>75</v>
       </c>
-      <c r="H16">
-        <v>0</v>
-      </c>
-      <c r="I16">
-        <v>1</v>
-      </c>
       <c r="J16">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="K16">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="M16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.3">
+        <v>5</v>
+      </c>
+      <c r="N16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>15</v>
       </c>
       <c r="B17">
         <v>12005</v>
       </c>
-      <c r="C17">
-        <v>5</v>
-      </c>
-      <c r="D17" t="s">
+      <c r="D17">
+        <v>5</v>
+      </c>
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17" t="s">
         <v>31</v>
       </c>
-      <c r="E17">
-        <v>0</v>
-      </c>
-      <c r="F17">
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
         <v>10</v>
       </c>
-      <c r="G17">
+      <c r="I17">
         <v>90</v>
       </c>
-      <c r="H17">
-        <v>0</v>
-      </c>
-      <c r="I17">
-        <v>1</v>
-      </c>
       <c r="J17">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="K17">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="M17">
+        <v>5</v>
+      </c>
+      <c r="N17">
         <v>0</v>
       </c>
     </row>

--- a/Design/DateTable/client_hero_info.xlsx
+++ b/Design/DateTable/client_hero_info.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SUB\SProjectDesign\Design\DateTable\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FCE29C77-7A78-476B-BC1E-E83766CBD111}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{776C246F-376E-4DEC-80D5-073B1181269F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{634E5D1F-E6A6-48B1-B744-D317D5276317}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{634E5D1F-E6A6-48B1-B744-D317D5276317}"/>
   </bookViews>
   <sheets>
     <sheet name="!Hero" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="34">
   <si>
     <t>AttackSpeed</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -152,11 +152,15 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>소환사</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>enum()</t>
+    <t>enum(AttackType)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NomalAttack</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ProjectileAttack</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -234,9 +238,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -244,6 +245,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -560,10 +564,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C3F3863-F070-4592-A50F-8035B6750A51}">
-  <dimension ref="A1:N17"/>
+  <dimension ref="A1:N22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M2" sqref="M2:M3"/>
+      <selection activeCell="M1" sqref="M1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -571,7 +575,7 @@
     <col min="2" max="2" width="6.5" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="5.75" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="6.625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.75" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="8.125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="7.5" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="7.75" bestFit="1" customWidth="1"/>
@@ -584,90 +588,90 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="F1" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="H1" s="2" t="s">
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="I1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="K1" s="2" t="s">
+      <c r="J1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="K1" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="L1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="M1" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="N1" s="1" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="E2" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="F2" s="3" t="s">
+      <c r="E2" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="F2" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="G2" s="3" t="s">
+      <c r="G2" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="H2" s="3" t="s">
+      <c r="H2" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="I2" s="3" t="s">
+      <c r="I2" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="J2" s="3" t="s">
+      <c r="J2" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="K2" s="3" t="s">
+      <c r="K2" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="L2" s="3" t="s">
+      <c r="L2" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="M2" s="3" t="s">
+      <c r="M2" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="N2" s="3" t="s">
+      <c r="N2" s="2" t="s">
         <v>22</v>
       </c>
     </row>
@@ -678,11 +682,14 @@
       <c r="B3">
         <v>10001</v>
       </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
       <c r="D3">
         <v>1</v>
       </c>
-      <c r="E3">
-        <v>0</v>
+      <c r="E3" t="s">
+        <v>32</v>
       </c>
       <c r="F3" t="s">
         <v>29</v>
@@ -697,7 +704,7 @@
         <v>50</v>
       </c>
       <c r="J3">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="K3">
         <v>1</v>
@@ -719,11 +726,14 @@
       <c r="B4">
         <v>10001</v>
       </c>
+      <c r="C4">
+        <v>2</v>
+      </c>
       <c r="D4">
-        <v>2</v>
-      </c>
-      <c r="E4">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="E4" t="s">
+        <v>32</v>
       </c>
       <c r="F4" t="s">
         <v>29</v>
@@ -738,7 +748,7 @@
         <v>75</v>
       </c>
       <c r="J4">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="K4">
         <v>1</v>
@@ -760,11 +770,14 @@
       <c r="B5">
         <v>10001</v>
       </c>
+      <c r="C5">
+        <v>3</v>
+      </c>
       <c r="D5">
-        <v>3</v>
-      </c>
-      <c r="E5">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="E5" t="s">
+        <v>32</v>
       </c>
       <c r="F5" t="s">
         <v>29</v>
@@ -779,7 +792,7 @@
         <v>100</v>
       </c>
       <c r="J5">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="K5">
         <v>1</v>
@@ -801,11 +814,14 @@
       <c r="B6">
         <v>10001</v>
       </c>
+      <c r="C6">
+        <v>4</v>
+      </c>
       <c r="D6">
-        <v>4</v>
-      </c>
-      <c r="E6">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="E6" t="s">
+        <v>32</v>
       </c>
       <c r="F6" t="s">
         <v>29</v>
@@ -820,7 +836,7 @@
         <v>125</v>
       </c>
       <c r="J6">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="K6">
         <v>1</v>
@@ -842,11 +858,14 @@
       <c r="B7">
         <v>10001</v>
       </c>
+      <c r="C7">
+        <v>5</v>
+      </c>
       <c r="D7">
-        <v>5</v>
-      </c>
-      <c r="E7">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="E7" t="s">
+        <v>32</v>
       </c>
       <c r="F7" t="s">
         <v>29</v>
@@ -861,7 +880,7 @@
         <v>150</v>
       </c>
       <c r="J7">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="K7">
         <v>1</v>
@@ -881,37 +900,43 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>11001</v>
+        <v>10001</v>
+      </c>
+      <c r="C8">
+        <v>6</v>
       </c>
       <c r="D8">
         <v>1</v>
       </c>
-      <c r="E8">
-        <v>0</v>
+      <c r="E8" t="s">
+        <v>32</v>
       </c>
       <c r="F8" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G8">
+        <f>ROUND(G7*1.1,0)</f>
+        <v>33</v>
+      </c>
+      <c r="H8">
+        <f t="shared" ref="H8:I12" si="0">ROUND(H7*1.1,0)</f>
+        <v>28</v>
+      </c>
+      <c r="I8">
+        <f t="shared" si="0"/>
+        <v>165</v>
+      </c>
+      <c r="J8">
+        <v>10</v>
+      </c>
+      <c r="K8">
+        <v>1</v>
+      </c>
+      <c r="L8">
+        <v>1</v>
+      </c>
+      <c r="M8">
         <v>3</v>
-      </c>
-      <c r="H8">
-        <v>1</v>
-      </c>
-      <c r="I8">
-        <v>30</v>
-      </c>
-      <c r="J8">
-        <v>1</v>
-      </c>
-      <c r="K8">
-        <v>1</v>
-      </c>
-      <c r="L8">
-        <v>5</v>
-      </c>
-      <c r="M8">
-        <v>5</v>
       </c>
       <c r="N8">
         <v>0</v>
@@ -922,37 +947,43 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>11002</v>
+        <v>10001</v>
+      </c>
+      <c r="C9">
+        <v>7</v>
       </c>
       <c r="D9">
-        <v>2</v>
-      </c>
-      <c r="E9">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="E9" t="s">
+        <v>32</v>
       </c>
       <c r="F9" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G9">
-        <v>6</v>
+        <f t="shared" ref="G9:G12" si="1">ROUND(G8*1.1,0)</f>
+        <v>36</v>
       </c>
       <c r="H9">
-        <v>2</v>
+        <f t="shared" si="0"/>
+        <v>31</v>
       </c>
       <c r="I9">
-        <v>45</v>
+        <f t="shared" si="0"/>
+        <v>182</v>
       </c>
       <c r="J9">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="K9">
         <v>1</v>
       </c>
       <c r="L9">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="M9">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N9">
         <v>0</v>
@@ -963,37 +994,43 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>11003</v>
+        <v>10001</v>
+      </c>
+      <c r="C10">
+        <v>8</v>
       </c>
       <c r="D10">
+        <v>1</v>
+      </c>
+      <c r="E10" t="s">
+        <v>32</v>
+      </c>
+      <c r="F10" t="s">
+        <v>29</v>
+      </c>
+      <c r="G10">
+        <f t="shared" si="1"/>
+        <v>40</v>
+      </c>
+      <c r="H10">
+        <f t="shared" si="0"/>
+        <v>34</v>
+      </c>
+      <c r="I10">
+        <f t="shared" si="0"/>
+        <v>200</v>
+      </c>
+      <c r="J10">
+        <v>10</v>
+      </c>
+      <c r="K10">
+        <v>1</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
         <v>3</v>
-      </c>
-      <c r="E10">
-        <v>0</v>
-      </c>
-      <c r="F10" t="s">
-        <v>30</v>
-      </c>
-      <c r="G10">
-        <v>9</v>
-      </c>
-      <c r="H10">
-        <v>3</v>
-      </c>
-      <c r="I10">
-        <v>60</v>
-      </c>
-      <c r="J10">
-        <v>3</v>
-      </c>
-      <c r="K10">
-        <v>1</v>
-      </c>
-      <c r="L10">
-        <v>5</v>
-      </c>
-      <c r="M10">
-        <v>5</v>
       </c>
       <c r="N10">
         <v>0</v>
@@ -1004,37 +1041,43 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>11004</v>
+        <v>10001</v>
+      </c>
+      <c r="C11">
+        <v>9</v>
       </c>
       <c r="D11">
-        <v>4</v>
-      </c>
-      <c r="E11">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="E11" t="s">
+        <v>32</v>
       </c>
       <c r="F11" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G11">
-        <v>12</v>
+        <f t="shared" si="1"/>
+        <v>44</v>
       </c>
       <c r="H11">
-        <v>5</v>
+        <f t="shared" si="0"/>
+        <v>37</v>
       </c>
       <c r="I11">
-        <v>75</v>
+        <f t="shared" si="0"/>
+        <v>220</v>
       </c>
       <c r="J11">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="K11">
         <v>1</v>
       </c>
       <c r="L11">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="M11">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N11">
         <v>0</v>
@@ -1045,37 +1088,43 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>11005</v>
+        <v>10001</v>
+      </c>
+      <c r="C12">
+        <v>10</v>
       </c>
       <c r="D12">
-        <v>5</v>
-      </c>
-      <c r="E12">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="E12" t="s">
+        <v>32</v>
       </c>
       <c r="F12" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G12">
-        <v>15</v>
+        <f t="shared" si="1"/>
+        <v>48</v>
       </c>
       <c r="H12">
+        <f t="shared" si="0"/>
+        <v>41</v>
+      </c>
+      <c r="I12">
+        <f t="shared" si="0"/>
+        <v>242</v>
+      </c>
+      <c r="J12">
         <v>10</v>
       </c>
-      <c r="I12">
-        <v>90</v>
-      </c>
-      <c r="J12">
-        <v>5</v>
-      </c>
       <c r="K12">
         <v>1</v>
       </c>
       <c r="L12">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="M12">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N12">
         <v>0</v>
@@ -1086,19 +1135,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>12001</v>
+        <v>11001</v>
+      </c>
+      <c r="C13">
+        <v>1</v>
       </c>
       <c r="D13">
         <v>1</v>
       </c>
-      <c r="E13">
-        <v>0</v>
+      <c r="E13" t="s">
+        <v>33</v>
       </c>
       <c r="F13" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G13">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H13">
         <v>1</v>
@@ -1107,7 +1159,7 @@
         <v>30</v>
       </c>
       <c r="J13">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="K13">
         <v>1</v>
@@ -1127,19 +1179,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>12002</v>
+        <v>11001</v>
+      </c>
+      <c r="C14">
+        <v>2</v>
       </c>
       <c r="D14">
-        <v>2</v>
-      </c>
-      <c r="E14">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="E14" t="s">
+        <v>33</v>
       </c>
       <c r="F14" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G14">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="H14">
         <v>2</v>
@@ -1148,7 +1203,7 @@
         <v>45</v>
       </c>
       <c r="J14">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="K14">
         <v>1</v>
@@ -1168,19 +1223,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>12003</v>
+        <v>11001</v>
+      </c>
+      <c r="C15">
+        <v>3</v>
       </c>
       <c r="D15">
-        <v>3</v>
-      </c>
-      <c r="E15">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="E15" t="s">
+        <v>33</v>
       </c>
       <c r="F15" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G15">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="H15">
         <v>3</v>
@@ -1189,7 +1247,7 @@
         <v>60</v>
       </c>
       <c r="J15">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="K15">
         <v>1</v>
@@ -1209,19 +1267,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>12004</v>
+        <v>11001</v>
+      </c>
+      <c r="C16">
+        <v>4</v>
       </c>
       <c r="D16">
-        <v>4</v>
-      </c>
-      <c r="E16">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="E16" t="s">
+        <v>33</v>
       </c>
       <c r="F16" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G16">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="H16">
         <v>5</v>
@@ -1230,7 +1291,7 @@
         <v>75</v>
       </c>
       <c r="J16">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="K16">
         <v>1</v>
@@ -1250,19 +1311,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>12005</v>
+        <v>11001</v>
+      </c>
+      <c r="C17">
+        <v>5</v>
       </c>
       <c r="D17">
-        <v>5</v>
-      </c>
-      <c r="E17">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="E17" t="s">
+        <v>33</v>
       </c>
       <c r="F17" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G17">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="H17">
         <v>10</v>
@@ -1271,7 +1335,7 @@
         <v>90</v>
       </c>
       <c r="J17">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="K17">
         <v>1</v>
@@ -1283,6 +1347,241 @@
         <v>5</v>
       </c>
       <c r="N17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A18">
+        <v>16</v>
+      </c>
+      <c r="B18">
+        <v>11001</v>
+      </c>
+      <c r="C18">
+        <v>6</v>
+      </c>
+      <c r="D18">
+        <v>1</v>
+      </c>
+      <c r="E18" t="s">
+        <v>33</v>
+      </c>
+      <c r="F18" t="s">
+        <v>30</v>
+      </c>
+      <c r="G18">
+        <f t="shared" ref="G18:G22" si="2">ROUND(G17*1.1,0)</f>
+        <v>17</v>
+      </c>
+      <c r="H18">
+        <f t="shared" ref="H18:H22" si="3">ROUND(H17*1.1,0)</f>
+        <v>11</v>
+      </c>
+      <c r="I18">
+        <f t="shared" ref="I18:I22" si="4">ROUND(I17*1.1,0)</f>
+        <v>99</v>
+      </c>
+      <c r="J18">
+        <v>15</v>
+      </c>
+      <c r="K18">
+        <v>1</v>
+      </c>
+      <c r="L18">
+        <v>5</v>
+      </c>
+      <c r="M18">
+        <v>5</v>
+      </c>
+      <c r="N18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A19">
+        <v>17</v>
+      </c>
+      <c r="B19">
+        <v>11001</v>
+      </c>
+      <c r="C19">
+        <v>7</v>
+      </c>
+      <c r="D19">
+        <v>1</v>
+      </c>
+      <c r="E19" t="s">
+        <v>33</v>
+      </c>
+      <c r="F19" t="s">
+        <v>30</v>
+      </c>
+      <c r="G19">
+        <f t="shared" si="2"/>
+        <v>19</v>
+      </c>
+      <c r="H19">
+        <f t="shared" si="3"/>
+        <v>12</v>
+      </c>
+      <c r="I19">
+        <f t="shared" si="4"/>
+        <v>109</v>
+      </c>
+      <c r="J19">
+        <v>15</v>
+      </c>
+      <c r="K19">
+        <v>1</v>
+      </c>
+      <c r="L19">
+        <v>5</v>
+      </c>
+      <c r="M19">
+        <v>5</v>
+      </c>
+      <c r="N19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A20">
+        <v>18</v>
+      </c>
+      <c r="B20">
+        <v>11001</v>
+      </c>
+      <c r="C20">
+        <v>8</v>
+      </c>
+      <c r="D20">
+        <v>1</v>
+      </c>
+      <c r="E20" t="s">
+        <v>33</v>
+      </c>
+      <c r="F20" t="s">
+        <v>30</v>
+      </c>
+      <c r="G20">
+        <f t="shared" si="2"/>
+        <v>21</v>
+      </c>
+      <c r="H20">
+        <f t="shared" si="3"/>
+        <v>13</v>
+      </c>
+      <c r="I20">
+        <f t="shared" si="4"/>
+        <v>120</v>
+      </c>
+      <c r="J20">
+        <v>15</v>
+      </c>
+      <c r="K20">
+        <v>1</v>
+      </c>
+      <c r="L20">
+        <v>5</v>
+      </c>
+      <c r="M20">
+        <v>5</v>
+      </c>
+      <c r="N20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A21">
+        <v>19</v>
+      </c>
+      <c r="B21">
+        <v>11001</v>
+      </c>
+      <c r="C21">
+        <v>9</v>
+      </c>
+      <c r="D21">
+        <v>1</v>
+      </c>
+      <c r="E21" t="s">
+        <v>33</v>
+      </c>
+      <c r="F21" t="s">
+        <v>30</v>
+      </c>
+      <c r="G21">
+        <f t="shared" si="2"/>
+        <v>23</v>
+      </c>
+      <c r="H21">
+        <f t="shared" si="3"/>
+        <v>14</v>
+      </c>
+      <c r="I21">
+        <f t="shared" si="4"/>
+        <v>132</v>
+      </c>
+      <c r="J21">
+        <v>15</v>
+      </c>
+      <c r="K21">
+        <v>1</v>
+      </c>
+      <c r="L21">
+        <v>5</v>
+      </c>
+      <c r="M21">
+        <v>5</v>
+      </c>
+      <c r="N21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A22">
+        <v>20</v>
+      </c>
+      <c r="B22">
+        <v>11001</v>
+      </c>
+      <c r="C22">
+        <v>10</v>
+      </c>
+      <c r="D22">
+        <v>1</v>
+      </c>
+      <c r="E22" t="s">
+        <v>33</v>
+      </c>
+      <c r="F22" t="s">
+        <v>30</v>
+      </c>
+      <c r="G22">
+        <f t="shared" si="2"/>
+        <v>25</v>
+      </c>
+      <c r="H22">
+        <f t="shared" si="3"/>
+        <v>15</v>
+      </c>
+      <c r="I22">
+        <f t="shared" si="4"/>
+        <v>145</v>
+      </c>
+      <c r="J22">
+        <v>15</v>
+      </c>
+      <c r="K22">
+        <v>1</v>
+      </c>
+      <c r="L22">
+        <v>5</v>
+      </c>
+      <c r="M22">
+        <v>5</v>
+      </c>
+      <c r="N22">
         <v>0</v>
       </c>
     </row>
@@ -1297,7 +1596,7 @@
   <dimension ref="A1:B14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1306,114 +1605,114 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="3" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="3" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3" s="4" t="s">
+      <c r="A3" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="3" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4" s="4" t="s">
+      <c r="A4" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="3" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B5" s="4" t="s">
+      <c r="A5" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" s="3" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A6" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="B6" s="4" t="s">
+      <c r="A6" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B6" s="3" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A7" s="4" t="s">
+      <c r="A7" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="B7" s="3" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A8" s="4" t="s">
+      <c r="A8" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="4" t="s">
+      <c r="B8" s="3" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A9" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="B9" s="4" t="s">
+      <c r="A9" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B9" s="3" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A10" s="4" t="s">
+      <c r="A10" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="B10" s="4" t="s">
+      <c r="B10" s="3" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A11" s="4" t="s">
+      <c r="A11" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B11" s="4" t="s">
+      <c r="B11" s="3" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A12" s="4" t="s">
+      <c r="A12" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="B12" s="4" t="s">
+      <c r="B12" s="3" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A13" s="4" t="s">
+      <c r="A13" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B13" s="4" t="s">
+      <c r="B13" s="3" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A14" s="4" t="s">
+      <c r="A14" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="B14" s="4" t="s">
+      <c r="B14" s="3" t="s">
         <v>18</v>
       </c>
     </row>
